--- a/Depth Damaged States Attenuation Model - Orientation =  90, Width = 2, Circumference = Outside, Axial Location = 235/PCs at A.xlsx
+++ b/Depth Damaged States Attenuation Model - Orientation =  90, Width = 2, Circumference = Outside, Axial Location = 235/PCs at A.xlsx
@@ -396,10 +396,10 @@
         <v>7000</v>
       </c>
       <c r="B2">
-        <v>-0.1192726176893657</v>
+        <v>-0.08053555155723416</v>
       </c>
       <c r="C2">
-        <v>-0.06919599483764953</v>
+        <v>0.2607125751647556</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>7333.333333333333</v>
       </c>
       <c r="B3">
-        <v>-0.3099901429806402</v>
+        <v>0.1023820116553337</v>
       </c>
       <c r="C3">
-        <v>-0.2589653552526111</v>
+        <v>-0.2643531791085623</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>7666.666666666667</v>
       </c>
       <c r="B4">
-        <v>0.2583265224561951</v>
+        <v>0.2049684770545157</v>
       </c>
       <c r="C4">
-        <v>-0.02356796994276122</v>
+        <v>0.2225355073906286</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>0.06818011577838293</v>
+        <v>0.2169909156117429</v>
       </c>
       <c r="C5">
-        <v>-0.1158745813056296</v>
+        <v>-0.1084341318948621</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>8333.333333333334</v>
       </c>
       <c r="B6">
-        <v>-0.3104622156856401</v>
+        <v>0.1444011345976094</v>
       </c>
       <c r="C6">
-        <v>0.07696522936069923</v>
+        <v>0.2319578760726343</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>8666.666666666666</v>
       </c>
       <c r="B7">
-        <v>-0.2302064796539104</v>
+        <v>0.3332653301064796</v>
       </c>
       <c r="C7">
-        <v>0.02297787248080928</v>
+        <v>0.39392106858569</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>9000</v>
       </c>
       <c r="B8">
-        <v>0.1539862174034566</v>
+        <v>0.318050236718135</v>
       </c>
       <c r="C8">
-        <v>0.1650326140892275</v>
+        <v>-0.4414046376317643</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>9333.333333333334</v>
       </c>
       <c r="B9">
-        <v>0.2835345874176005</v>
+        <v>0.1051321814098121</v>
       </c>
       <c r="C9">
-        <v>-0.04542687683698761</v>
+        <v>-0.1550931849627726</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>9666.666666666666</v>
       </c>
       <c r="B10">
-        <v>-0.1886558541605205</v>
+        <v>0.1189829256514251</v>
       </c>
       <c r="C10">
-        <v>-0.4213491748368551</v>
+        <v>0.2059546282531164</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>0.2449790877841853</v>
+        <v>0.4547933661645938</v>
       </c>
       <c r="C11">
-        <v>0.0740936974052494</v>
+        <v>-0.0505843682346436</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10333.33333333333</v>
       </c>
       <c r="B12">
-        <v>0.454432019126137</v>
+        <v>0.4151417231151884</v>
       </c>
       <c r="C12">
-        <v>-0.237750180448488</v>
+        <v>-0.1745899015960837</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10666.66666666667</v>
       </c>
       <c r="B13">
-        <v>-0.01765756122384181</v>
+        <v>0.350448853305261</v>
       </c>
       <c r="C13">
-        <v>0.3857989231324501</v>
+        <v>0.1909020037940034</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11000</v>
       </c>
       <c r="B14">
-        <v>0.1237323965154438</v>
+        <v>0.2971744291466285</v>
       </c>
       <c r="C14">
-        <v>0.1542212454690977</v>
+        <v>0.04165925157841546</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>11333.33333333333</v>
       </c>
       <c r="B15">
-        <v>0.3199134917272556</v>
+        <v>0.1761520357767008</v>
       </c>
       <c r="C15">
-        <v>0.01572721126077724</v>
+        <v>-0.1552805762572122</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>11666.66666666667</v>
       </c>
       <c r="B16">
-        <v>0.278032181062974</v>
+        <v>0.102652471975735</v>
       </c>
       <c r="C16">
-        <v>-0.575676466275141</v>
+        <v>0.07281359419034758</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>12000</v>
       </c>
       <c r="B17">
-        <v>-0.2596754308706781</v>
+        <v>0.06146474928493108</v>
       </c>
       <c r="C17">
-        <v>-0.3668645597428594</v>
+        <v>0.4795262829501432</v>
       </c>
     </row>
   </sheetData>

--- a/Depth Damaged States Attenuation Model - Orientation =  90, Width = 2, Circumference = Outside, Axial Location = 235/PCs at A.xlsx
+++ b/Depth Damaged States Attenuation Model - Orientation =  90, Width = 2, Circumference = Outside, Axial Location = 235/PCs at A.xlsx
@@ -396,10 +396,10 @@
         <v>7000</v>
       </c>
       <c r="B2">
-        <v>-0.08053555155723416</v>
+        <v>-0.04529952735016188</v>
       </c>
       <c r="C2">
-        <v>0.2607125751647556</v>
+        <v>0.3807916908414835</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>7333.333333333333</v>
       </c>
       <c r="B3">
-        <v>0.1023820116553337</v>
+        <v>0.1863946186624733</v>
       </c>
       <c r="C3">
-        <v>-0.2643531791085623</v>
+        <v>0.04870315033453594</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>7666.666666666667</v>
       </c>
       <c r="B4">
-        <v>0.2049684770545157</v>
+        <v>-0.1979653412675272</v>
       </c>
       <c r="C4">
-        <v>0.2225355073906286</v>
+        <v>-0.04578366880077607</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>0.2169909156117429</v>
+        <v>-0.04628039727168934</v>
       </c>
       <c r="C5">
-        <v>-0.1084341318948621</v>
+        <v>0.0527279543444332</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>8333.333333333334</v>
       </c>
       <c r="B6">
-        <v>0.1444011345976094</v>
+        <v>0.03697795705066301</v>
       </c>
       <c r="C6">
-        <v>0.2319578760726343</v>
+        <v>-0.2111855394777243</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>8666.666666666666</v>
       </c>
       <c r="B7">
-        <v>0.3332653301064796</v>
+        <v>0.2508200006377966</v>
       </c>
       <c r="C7">
-        <v>0.39392106858569</v>
+        <v>0.1958649351207464</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>9000</v>
       </c>
       <c r="B8">
-        <v>0.318050236718135</v>
+        <v>-0.03976996254254109</v>
       </c>
       <c r="C8">
-        <v>-0.4414046376317643</v>
+        <v>0.5165749593323006</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>9333.333333333334</v>
       </c>
       <c r="B9">
-        <v>0.1051321814098121</v>
+        <v>0.5275972255920272</v>
       </c>
       <c r="C9">
-        <v>-0.1550931849627726</v>
+        <v>-0.2589894288161541</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>9666.666666666666</v>
       </c>
       <c r="B10">
-        <v>0.1189829256514251</v>
+        <v>-0.09331759947224851</v>
       </c>
       <c r="C10">
-        <v>0.2059546282531164</v>
+        <v>0.2269473968572833</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>0.4547933661645938</v>
+        <v>0.3274540970952823</v>
       </c>
       <c r="C11">
-        <v>-0.0505843682346436</v>
+        <v>0.2278432754087099</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10333.33333333333</v>
       </c>
       <c r="B12">
-        <v>0.4151417231151884</v>
+        <v>0.2519163786991722</v>
       </c>
       <c r="C12">
-        <v>-0.1745899015960837</v>
+        <v>0.005729994812295732</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10666.66666666667</v>
       </c>
       <c r="B13">
-        <v>0.350448853305261</v>
+        <v>-0.09040269537094542</v>
       </c>
       <c r="C13">
-        <v>0.1909020037940034</v>
+        <v>0.3040341500528089</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11000</v>
       </c>
       <c r="B14">
-        <v>0.2971744291466285</v>
+        <v>0.3948949280184769</v>
       </c>
       <c r="C14">
-        <v>0.04165925157841546</v>
+        <v>-0.01068316406921473</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>11333.33333333333</v>
       </c>
       <c r="B15">
-        <v>0.1761520357767008</v>
+        <v>0.3356224698231056</v>
       </c>
       <c r="C15">
-        <v>-0.1552805762572122</v>
+        <v>-0.1842273898718651</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>11666.66666666667</v>
       </c>
       <c r="B16">
-        <v>0.102652471975735</v>
+        <v>0.1776075311436495</v>
       </c>
       <c r="C16">
-        <v>0.07281359419034758</v>
+        <v>0.2458715389224503</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>12000</v>
       </c>
       <c r="B17">
-        <v>0.06146474928493108</v>
+        <v>0.299927611655373</v>
       </c>
       <c r="C17">
-        <v>0.4795262829501432</v>
+        <v>0.3747902625997055</v>
       </c>
     </row>
   </sheetData>
